--- a/sam 구축/pep_sam_09_28(0변환 21개 산업).xlsx
+++ b/sam 구축/pep_sam_09_28(0변환 21개 산업).xlsx
@@ -213,11 +213,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -949,7 +952,7 @@
         <v>661.57634124879996</v>
       </c>
       <c r="BK3">
-        <f>SUM(C3:BJ3)</f>
+        <f t="shared" ref="BK3:BK34" si="0">SUM(C3:BJ3)</f>
         <v>483648.88545079506</v>
       </c>
     </row>
@@ -1024,7 +1027,7 @@
         <v>410.67056515119992</v>
       </c>
       <c r="BK4">
-        <f t="shared" ref="BK4:BK62" si="0">SUM(C4:BJ4)</f>
+        <f t="shared" si="0"/>
         <v>429759.87854920502</v>
       </c>
     </row>
@@ -1370,7 +1373,7 @@
         <v>334993.03784090036</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>13774.549794</v>
       </c>
       <c r="BK35">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BK35:BK66" si="1">SUM(C35:BJ35)</f>
         <v>100251.61026599997</v>
       </c>
     </row>
@@ -2998,7 +3001,7 @@
         <v>4249.5384077999997</v>
       </c>
       <c r="BK36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32882.163388200002</v>
       </c>
     </row>
@@ -3076,7 +3079,7 @@
         <v>1830.8726164</v>
       </c>
       <c r="BK37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27354.453098800001</v>
       </c>
     </row>
@@ -3154,7 +3157,7 @@
         <v>0.21635919999999997</v>
       </c>
       <c r="BK38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3911.3860232000002</v>
       </c>
     </row>
@@ -3253,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="BK39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65684.083000000013</v>
       </c>
     </row>
@@ -3352,7 +3355,7 @@
         <v>1989.682</v>
       </c>
       <c r="BK40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6355.4349999999995</v>
       </c>
     </row>
@@ -3451,7 +3454,7 @@
         <v>18168.096655900001</v>
       </c>
       <c r="BK41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1312857.8225329996</v>
       </c>
     </row>
@@ -3550,7 +3553,7 @@
         <v>1133.7152129999999</v>
       </c>
       <c r="BK42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154369.24257699997</v>
       </c>
     </row>
@@ -3649,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="BK43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120145.85000000002</v>
       </c>
     </row>
@@ -3748,7 +3751,7 @@
         <v>464.036</v>
       </c>
       <c r="BK44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274978.65000000002</v>
       </c>
     </row>
@@ -3847,7 +3850,7 @@
         <v>256.57100000000003</v>
       </c>
       <c r="BK45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>130185.77399999999</v>
       </c>
     </row>
@@ -3946,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="BK46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>177057.16099999999</v>
       </c>
     </row>
@@ -4045,7 +4048,7 @@
         <v>513.74460020000004</v>
       </c>
       <c r="BK47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111639.4521216</v>
       </c>
     </row>
@@ -4144,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="BK48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180728.23300000001</v>
       </c>
     </row>
@@ -4243,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="BK49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230329.10899999997</v>
       </c>
     </row>
@@ -4342,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="BK50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277314.83544480003</v>
       </c>
     </row>
@@ -4416,7 +4419,7 @@
       <c r="AF51">
         <v>0</v>
       </c>
-      <c r="AG51">
+      <c r="AG51" s="2">
         <v>2823.0039999999999</v>
       </c>
       <c r="AH51">
@@ -4441,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="BK51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>159359.74999999997</v>
       </c>
     </row>
@@ -4540,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="BK52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132137.54299999995</v>
       </c>
     </row>
@@ -4639,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="BK53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>166903.23599999998</v>
       </c>
     </row>
@@ -4738,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="BK54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113548.72076880001</v>
       </c>
     </row>
@@ -4837,7 +4840,7 @@
         <v>393.93934409999997</v>
       </c>
       <c r="BK55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23127.595466999999</v>
       </c>
     </row>
@@ -4936,7 +4939,7 @@
         <v>697.81178699999998</v>
       </c>
       <c r="BK56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95015.640423000004</v>
       </c>
     </row>
@@ -5035,7 +5038,7 @@
         <v>448.68439979999999</v>
       </c>
       <c r="BK57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33039.981878399994</v>
       </c>
     </row>
@@ -5134,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="BK58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30141.193555199996</v>
       </c>
     </row>
@@ -5233,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="BK59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3979.8462312000001</v>
       </c>
     </row>
@@ -5248,7 +5251,7 @@
         <v>761603.0070000001</v>
       </c>
       <c r="BK60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>761603.0070000001</v>
       </c>
     </row>
@@ -5280,12 +5283,12 @@
       <c r="M61">
         <v>133634.79999999999</v>
       </c>
-      <c r="Q61" s="1">
-        <v>0</v>
+      <c r="Q61">
+        <v>-53781.672999999901</v>
       </c>
       <c r="BK61">
-        <f>SUM(C61:BJ61)</f>
-        <v>670582.65483922767</v>
+        <f t="shared" si="1"/>
+        <v>616800.98183922772</v>
       </c>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.3">
@@ -5299,7 +5302,7 @@
         <v>23993.716999999997</v>
       </c>
       <c r="BK62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23993.716999999997</v>
       </c>
     </row>
@@ -5311,243 +5314,243 @@
         <v>45</v>
       </c>
       <c r="C63">
-        <f>SUM(C3:C62)</f>
+        <f t="shared" ref="C63:AH63" si="2">SUM(C3:C62)</f>
         <v>483648.88545079506</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:BJ63" si="1">SUM(D3:D62)</f>
+        <f t="shared" si="2"/>
         <v>429759.87854920502</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>780032.19400310016</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46640.817996899998</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20164.852051745802</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89879.938491701701</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177745.08257295267</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292908.32654043281</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>594688.26434316707</v>
       </c>
       <c r="L63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>564695.31200000015</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>462297.98</v>
       </c>
       <c r="N63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168562.00816077238</v>
       </c>
       <c r="O63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160659.12800000035</v>
       </c>
       <c r="P63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23757.156000000003</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>707821.33400000015</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>59914.466999999982</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>4289.4369999999999</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="2"/>
+        <v>1349791.2429299997</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="2"/>
+        <v>162875.97573400001</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>78790.207000000009</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>246138.48999999996</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>130205.55</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="2"/>
+        <v>152298.53399999996</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="2"/>
+        <v>105278.9886118</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" si="2"/>
+        <v>171975.97100000002</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="2"/>
+        <v>195978.84299999996</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="2"/>
+        <v>287674.10290119989</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="2"/>
+        <v>154312.86999999994</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="2"/>
+        <v>128459.378</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="2"/>
+        <v>158337.48800000001</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" si="2"/>
+        <v>97976.990976800007</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" si="2"/>
+        <v>19493.831070000004</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" ref="AI63:BN63" si="3">SUM(AI3:AI62)</f>
+        <v>100251.61026599997</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="3"/>
+        <v>32882.163388200002</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="3"/>
+        <v>27354.453098800001</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" si="3"/>
+        <v>3911.3860232000002</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" si="3"/>
+        <v>70959.548999999985</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" si="3"/>
+        <v>150867.239</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" si="3"/>
+        <v>1312857.822533</v>
+      </c>
+      <c r="AP63">
+        <f t="shared" si="3"/>
+        <v>154369.242577</v>
+      </c>
+      <c r="AQ63">
+        <f t="shared" si="3"/>
+        <v>120145.85</v>
+      </c>
+      <c r="AR63">
+        <f t="shared" si="3"/>
+        <v>274978.65000000002</v>
+      </c>
+      <c r="AS63">
+        <f t="shared" si="3"/>
+        <v>130185.774</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="3"/>
+        <v>177057.16099999996</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" si="3"/>
+        <v>111639.45212160003</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" si="3"/>
+        <v>180728.23300000001</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="3"/>
+        <v>230329.10899999994</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" si="3"/>
+        <v>297437.72144839988</v>
+      </c>
+      <c r="AY63">
+        <f t="shared" si="3"/>
+        <v>159359.74999999994</v>
+      </c>
+      <c r="AZ63">
+        <f t="shared" si="3"/>
+        <v>132137.54300000001</v>
+      </c>
+      <c r="BA63">
+        <f t="shared" si="3"/>
+        <v>166903.23600000003</v>
+      </c>
+      <c r="BB63">
+        <f t="shared" si="3"/>
+        <v>113548.72076880001</v>
+      </c>
+      <c r="BC63">
+        <f t="shared" si="3"/>
+        <v>24516.503423100003</v>
+      </c>
+      <c r="BD63">
+        <f t="shared" si="3"/>
+        <v>95015.640422999975</v>
+      </c>
+      <c r="BE63">
+        <f t="shared" si="3"/>
+        <v>33039.981878400009</v>
+      </c>
+      <c r="BF63">
+        <f t="shared" si="3"/>
+        <v>33097.876551599998</v>
+      </c>
+      <c r="BG63">
+        <f t="shared" si="3"/>
+        <v>3985.4451159999999</v>
+      </c>
+      <c r="BH63">
+        <f t="shared" si="3"/>
         <v>761603.0070000001</v>
       </c>
-      <c r="R63">
-        <f t="shared" si="1"/>
-        <v>59914.466999999982</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="1"/>
-        <v>4289.4369999999999</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="1"/>
-        <v>1349791.2429299997</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="1"/>
-        <v>162875.97573400001</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="1"/>
-        <v>78790.207000000009</v>
-      </c>
-      <c r="W63">
-        <f t="shared" si="1"/>
-        <v>246138.48999999996</v>
-      </c>
-      <c r="X63">
-        <f t="shared" si="1"/>
-        <v>130205.55</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="1"/>
-        <v>152298.53399999996</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="1"/>
-        <v>105278.9886118</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="1"/>
-        <v>171975.97100000002</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="1"/>
-        <v>195978.84299999996</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="1"/>
-        <v>287674.10290119989</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="1"/>
-        <v>154312.86999999994</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="1"/>
-        <v>128459.378</v>
-      </c>
-      <c r="AF63">
-        <f t="shared" si="1"/>
-        <v>158337.48800000001</v>
-      </c>
-      <c r="AG63">
-        <f t="shared" si="1"/>
-        <v>97976.990976800007</v>
-      </c>
-      <c r="AH63">
-        <f t="shared" si="1"/>
-        <v>19493.831070000004</v>
-      </c>
-      <c r="AI63">
-        <f t="shared" si="1"/>
-        <v>100251.61026599997</v>
-      </c>
-      <c r="AJ63">
-        <f t="shared" si="1"/>
-        <v>32882.163388200002</v>
-      </c>
-      <c r="AK63">
-        <f t="shared" si="1"/>
-        <v>27354.453098800001</v>
-      </c>
-      <c r="AL63">
-        <f t="shared" si="1"/>
-        <v>3911.3860232000002</v>
-      </c>
-      <c r="AM63">
-        <f t="shared" si="1"/>
-        <v>70959.548999999985</v>
-      </c>
-      <c r="AN63">
-        <f t="shared" si="1"/>
-        <v>150867.239</v>
-      </c>
-      <c r="AO63">
-        <f t="shared" si="1"/>
-        <v>1312857.822533</v>
-      </c>
-      <c r="AP63">
-        <f t="shared" si="1"/>
-        <v>154369.242577</v>
-      </c>
-      <c r="AQ63">
-        <f t="shared" si="1"/>
-        <v>120145.85</v>
-      </c>
-      <c r="AR63">
-        <f t="shared" si="1"/>
-        <v>274978.65000000002</v>
-      </c>
-      <c r="AS63">
-        <f t="shared" si="1"/>
-        <v>130185.774</v>
-      </c>
-      <c r="AT63">
-        <f t="shared" si="1"/>
-        <v>177057.16099999996</v>
-      </c>
-      <c r="AU63">
-        <f t="shared" si="1"/>
-        <v>111639.45212160003</v>
-      </c>
-      <c r="AV63">
-        <f t="shared" si="1"/>
-        <v>180728.23300000001</v>
-      </c>
-      <c r="AW63">
-        <f t="shared" si="1"/>
-        <v>230329.10899999994</v>
-      </c>
-      <c r="AX63">
-        <f t="shared" si="1"/>
-        <v>297437.72144839988</v>
-      </c>
-      <c r="AY63">
-        <f t="shared" si="1"/>
-        <v>159359.74999999994</v>
-      </c>
-      <c r="AZ63">
-        <f t="shared" si="1"/>
-        <v>132137.54300000001</v>
-      </c>
-      <c r="BA63">
-        <f t="shared" si="1"/>
-        <v>166903.23600000003</v>
-      </c>
-      <c r="BB63">
-        <f t="shared" si="1"/>
-        <v>113548.72076880001</v>
-      </c>
-      <c r="BC63">
-        <f t="shared" si="1"/>
-        <v>24516.503423100003</v>
-      </c>
-      <c r="BD63">
-        <f t="shared" si="1"/>
-        <v>95015.640422999975</v>
-      </c>
-      <c r="BE63">
-        <f t="shared" si="1"/>
-        <v>33039.981878400009</v>
-      </c>
-      <c r="BF63">
-        <f t="shared" si="1"/>
-        <v>33097.876551599998</v>
-      </c>
-      <c r="BG63">
-        <f>SUM(BG3:BG62)</f>
-        <v>3985.4451159999999</v>
-      </c>
-      <c r="BH63">
-        <f t="shared" si="1"/>
-        <v>761603.0070000001</v>
-      </c>
       <c r="BI63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>616800.98183922772</v>
       </c>
       <c r="BJ63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24066.280999999999</v>
       </c>
     </row>
